--- a/Dataset/Folds/Fold_3/Excel/76.xlsx
+++ b/Dataset/Folds/Fold_3/Excel/76.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1041" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1161" uniqueCount="149">
   <si>
     <t>Doi</t>
   </si>
@@ -494,6 +494,39 @@
   </si>
   <si>
     <t>[Gaoli%Liu%NULL%1,                            Shaowen%Zhang%NULL%2,                            Shaowen%Zhang%NULL%0,                            Zhangfan%Mao%NULL%1,                            Weixing%Wang%13392186@qq.com%1,                            Haifeng%Hu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ping%Zhang%NULL%1,                             Zhigang%He%NULL%1,                             Gang%Yu%NULL%1,                             Dan%Peng%NULL%1,                             Yikuan%Feng%NULL%1,                             Jianmin%Ling%NULL%1,                             Ye%Wang%NULL%1,                             Shusheng%Li%NULL%0,                             Yi%Bian%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Li%NULL%1,                             Yalan%Zhang%NULL%2,                             Yalan%Zhang%NULL%0,                             Cheng%Gong%NULL%1,                             Jing%Wang%NULL%0,                             Bao%Liu%NULL%1,                             Li%Shi%NULL%1,                             Jun%Duan%junjununun@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Gaoli%Liu%NULL%1,                             Shaowen%Zhang%NULL%2,                             Shaowen%Zhang%NULL%0,                             Zhangfan%Mao%NULL%1,                             Weixing%Wang%13392186@qq.com%1,                             Haifeng%Hu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ping%Zhang%NULL%1,                              Zhigang%He%NULL%1,                              Gang%Yu%NULL%1,                              Dan%Peng%NULL%1,                              Yikuan%Feng%NULL%1,                              Jianmin%Ling%NULL%1,                              Ye%Wang%NULL%1,                              Shusheng%Li%NULL%0,                              Yi%Bian%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Tao%Li%NULL%1,                              Yalan%Zhang%NULL%2,                              Yalan%Zhang%NULL%0,                              Cheng%Gong%NULL%1,                              Jing%Wang%NULL%0,                              Bao%Liu%NULL%1,                              Li%Shi%NULL%1,                              Jun%Duan%junjununun@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Gaoli%Liu%NULL%1,                              Shaowen%Zhang%NULL%2,                              Shaowen%Zhang%NULL%0,                              Zhangfan%Mao%NULL%1,                              Weixing%Wang%13392186@qq.com%1,                              Haifeng%Hu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Ping%Zhang%NULL%0, Zhigang%He%NULL%0, Gang%Yu%NULL%1, Dan%Peng%NULL%1, Yikuan%Feng%NULL%1, Jianmin%Ling%NULL%0, Ye%Wang%NULL%1, Shusheng%Li%NULL%0, Yi%Bian%NULL%1]</t>
+  </si>
+  <si>
+    <t>Elsevier Ltd and European Society for Clinical Nutrition and Metabolism.</t>
+  </si>
+  <si>
+    <t>[Tao%Li%NULL%0, Yalan%Zhang%NULL%2, Yalan%Zhang%NULL%0, Cheng%Gong%NULL%1, Jing%Wang%NULL%0, Bao%Liu%NULL%1, Li%Shi%NULL%1, Jun%Duan%junjununun@163.com%0]</t>
+  </si>
+  <si>
+    <t>Nature Publishing Group UK</t>
+  </si>
+  <si>
+    <t>[Gaoli%Liu%NULL%0, Shaowen%Zhang%NULL%2, Shaowen%Zhang%NULL%0, Zhangfan%Mao%NULL%1, Weixing%Wang%13392186@qq.com%1, Haifeng%Hu%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -811,7 +844,7 @@
         <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="F2" t="s">
         <v>20</v>
@@ -823,10 +856,10 @@
         <v>22</v>
       </c>
       <c r="I2" t="s">
-        <v>97</v>
+        <v>50</v>
       </c>
       <c r="J2" t="s">
-        <v>50</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3">
@@ -840,10 +873,10 @@
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>74</v>
+        <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="F3" t="s">
         <v>26</v>
@@ -855,10 +888,10 @@
         <v>27</v>
       </c>
       <c r="I3" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="J3" t="s">
-        <v>50</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4">
@@ -869,28 +902,28 @@
         <v>44075.0</v>
       </c>
       <c r="C4" t="s">
-        <v>100</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>136</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>102</v>
+        <v>15</v>
       </c>
       <c r="H4" t="s">
-        <v>103</v>
+        <v>28</v>
       </c>
       <c r="I4" t="s">
         <v>50</v>
       </c>
       <c r="J4" t="s">
-        <v>113</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5">
@@ -904,10 +937,10 @@
         <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="F5" t="s">
         <v>32</v>
@@ -919,10 +952,10 @@
         <v>33</v>
       </c>
       <c r="I5" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
       <c r="J5" t="s">
-        <v>50</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
